--- a/SWPattern/experimentalResults/scholarDatasets/outputMatrixIdx.xlsx
+++ b/SWPattern/experimentalResults/scholarDatasets/outputMatrixIdx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\workingDir\krimp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\git\SWKrimpSim\SWPattern\experimentalResults\scholarDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115"/>
   </bookViews>
   <sheets>
     <sheet name="outputMatrixIdx.xlsx" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="20">
   <si>
     <t>Property</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>input</t>
+  </si>
+  <si>
+    <t>Property Input/Other</t>
+  </si>
+  <si>
+    <t>PropertyAndTypes Input/Other</t>
+  </si>
+  <si>
+    <t>PropertyAndOthers Input/Other</t>
   </si>
 </sst>
 </file>
@@ -892,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1300,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1411,7 +1420,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
@@ -1531,7 +1540,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
